--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1653.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1653.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.431677005202268</v>
+        <v>3.17200756072998</v>
       </c>
       <c r="B1">
-        <v>3.539442058038272</v>
+        <v>2.890517711639404</v>
       </c>
       <c r="C1">
-        <v>2.999252544007053</v>
+        <v>2.615802049636841</v>
       </c>
       <c r="D1">
-        <v>2.304416919704185</v>
+        <v>2.931085586547852</v>
       </c>
       <c r="E1">
-        <v>1.305316925683687</v>
+        <v>2.878523588180542</v>
       </c>
     </row>
   </sheetData>
